--- a/biology/Zoologie/Campylomormyrus/Campylomormyrus.xlsx
+++ b/biology/Zoologie/Campylomormyrus/Campylomormyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylomormyrus est un genre de poissons de la famille des Mormyridae, une famille largement répandue dans les eaux douces africaines. Les espèces connues du genre Campylomormyrus ont une longueur totale comprise entre 20 et 65 cm. C'est le genre de Mormyres qui répond le mieux au surnom de « poisson-éléphant » car leur trompe, prolongeant un front souvent bombé, est formée par leur museau courbé vers le bas et non par un barbillon mentonnier (qu'il possède d'ailleurs, en plus, sous cette trompe) qui n'a rien d'une trompe comme c'est le cas de Gnathonemus petersii (surnommé abusivement « poisson-éléphant ») qui lui a volé la vedette dans le monde de l'aquariophilie. La « trompe » de Campylomormyrus est néanmoins osseuse et assez raide et ne joue donc pas le rôle d'une trompe d'éléphant. Bref, de tous les mormyres, c'est le profil de la tête de Campylomormyrus qui fait le plus penser à un éléphant.
 D'ailleurs, plusieurs noms d'espèces de Campylomormyrus évoquent cette sorte de trompe qui les caractérise : Campylomormyrus curvirostris ("au rostre ou museau courbé"), C. elephas ("éléphant"), C. orycteropus ("oryctérope", sorte de fourmilier africain, au museau tubulaire), C. rhynchophorus ("porteur d'un bec"), C. tamandua (l'un des "fourmiliers sud-américains", au museau très allongé)… La trompe (ou museau) est parfois tellement allongée et effilée qu'elle fait penser à un bec plus qu'à une trompe, ce qui conduisit à la création de l'espèce C. ibis (rappelant l'oiseau échassier éponyme, au long bec courbé vers le bas), avant que celle-ci ne tombe en synonymie avec les stades juvéniles de C. numenius.
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (28 mai 2015)[1][2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (28 mai 2015) :
 Campylomormyrus alces (Boulenger, 1920)
 Campylomormyrus bredoi (Poll, 1945)
 Campylomormyrus cassaicus (Poll, 1967)
@@ -558,7 +572,9 @@
           <t>Littérature illustrée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Max Poll, Jean-Pierre Gosse &amp; Stéphane Orts, 1982 : « Le genre Campylomormyrus Bleeker, 1874. Étude systématique et description d'une espèce nouvelle (Pisces, Mormyridae) ». Bulletin de l'Institut Royal des Sciences Naturelles de Belgique, vol. 54, Biologie, n. 5, 34 pp., 2 fig., 13 pl.</t>
         </is>
